--- a/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
@@ -28,11 +34,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,95 +50,58 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,9 +115,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,13 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -186,6 +163,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,181 +200,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,15 +391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,17 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -479,6 +458,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -487,7 +475,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,28 +496,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,115 +526,115 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,18 +993,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
@@ -1018,6 +1017,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
@@ -996,14 +996,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>

--- a/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -22,10 +22,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>c1</t>
+    <t>display</t>
+  </si>
+  <si>
+    <t>city1</t>
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>City-1-1</t>
   </si>
 </sst>
 </file>
@@ -33,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -47,6 +53,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -54,6 +84,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -61,49 +121,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,16 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,25 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,13 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,17 +400,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,40 +440,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +472,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -499,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,37 +999,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableCity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\EAM\EAM\UniPrj\EAM\Assets\GameSettings~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9651E0A5-1F3D-4DCE-BF34-A072564C3BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4288ED4-1856-4E75-99F0-A4C48D68C552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16095" yWindow="-735" windowWidth="14970" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15465" yWindow="8940" windowWidth="14970" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,13 @@
   </si>
   <si>
     <t>CaiJi-10-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city103</t>
+  </si>
+  <si>
+    <t>City-1-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,221 +569,232 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
